--- a/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001962328231198684</v>
+        <v>0.001960115656066419</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02713826052914264</v>
+        <v>0.02767617785806314</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -721,19 +721,19 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.02716101555345135</v>
+        <v>0.02817557068992909</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002109950573617148</v>
+        <v>0.002107776547281749</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03694413046932244</v>
+        <v>0.03489445233970682</v>
       </c>
     </row>
     <row r="6">
@@ -744,36 +744,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01143985945190231</v>
+        <v>0.01109877246881752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01642988504473497</v>
+        <v>0.01658134660057513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1383627721504114</v>
+        <v>0.1422859440598977</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01667773690524219</v>
+        <v>0.01671117520436524</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.1060448663992313</v>
+        <v>0.1004858369039625</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.005110976246280255</v>
+        <v>0.004877784930998917</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01143015032281067</v>
+        <v>0.01182031260250674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.005727932483266029</v>
+        <v>0.005717271047067906</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1067758813448876</v>
+        <v>0.09780546474940782</v>
       </c>
     </row>
     <row r="7">
@@ -835,37 +835,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007232718096836036</v>
+        <v>0.008228302882400033</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05900671077272426</v>
+        <v>0.05714413139105282</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001414120399705975</v>
+        <v>0.001411528818303961</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006489729507580142</v>
+        <v>0.006514394389355189</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003462477156733919</v>
+        <v>0.003483324546540404</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04149758983773365</v>
+        <v>0.04098552343783559</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001297706136066649</v>
+        <v>0.0008486017008671868</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00915851181860663</v>
+        <v>0.008969284106748512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003427130654225949</v>
+        <v>0.00285606431933464</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05682926856225567</v>
+        <v>0.05587196369610801</v>
       </c>
     </row>
     <row r="9">
@@ -876,40 +876,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01381026271124363</v>
+        <v>0.01283489218512771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.028644487289245</v>
+        <v>0.02822848163296312</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01302460168805942</v>
+        <v>0.01680130569502461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1301535211404502</v>
+        <v>0.1267232048871385</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01285709210687601</v>
+        <v>0.01324151615977477</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02699151501512729</v>
+        <v>0.02810674454187953</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02081440504202255</v>
+        <v>0.02115318252098197</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08391279425109252</v>
+        <v>0.08425437948844744</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008962345611103375</v>
+        <v>0.008169188444269258</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02391128772162153</v>
+        <v>0.02301897136562241</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01346619177343391</v>
+        <v>0.01316332718954434</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09740187002080894</v>
+        <v>0.09386813576445464</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0.02073680010637674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08194299145590755</v>
+        <v>0.08194299145590757</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01041892814715356</v>
@@ -957,7 +957,7 @@
         <v>0.02333508409978853</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08286352848743109</v>
+        <v>0.08286352848743106</v>
       </c>
     </row>
     <row r="11">
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01454446232190186</v>
+        <v>0.01458015880195268</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005947948371502687</v>
+        <v>0.006920841794741047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01128067089758896</v>
+        <v>0.01169487451232019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06003375938048365</v>
+        <v>0.0583373793518276</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004381802842741337</v>
+        <v>0.004648047284607494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02140068998785969</v>
+        <v>0.02093226710686925</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.015291843349544</v>
+        <v>0.015144672971284</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06461709397757105</v>
+        <v>0.06605202031396502</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0112424465273514</v>
+        <v>0.01144630852328388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01568096802510158</v>
+        <v>0.01588671483513748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01625131707631722</v>
+        <v>0.01543297292972374</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06789090831707445</v>
+        <v>0.06749546094694757</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04117894259605274</v>
+        <v>0.04185410540896255</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02681329779051328</v>
+        <v>0.02715238991758702</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03327624309666084</v>
+        <v>0.0351418572807529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1115962889596956</v>
+        <v>0.1102614409659681</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02083709300928052</v>
+        <v>0.02218761573567101</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05033239025500422</v>
+        <v>0.04849299319503023</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04069353560304592</v>
+        <v>0.04023890362933845</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1044005876138631</v>
+        <v>0.1091057571574844</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02556517841454186</v>
+        <v>0.02591311909594757</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03349860231290237</v>
+        <v>0.0324625912338081</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03367866589902066</v>
+        <v>0.03267442834935051</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09798273810068116</v>
+        <v>0.09938185550880663</v>
       </c>
     </row>
     <row r="13">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02854029545913314</v>
+        <v>0.02720425008847458</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03629217716909919</v>
+        <v>0.03714344814481882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04873034589340405</v>
+        <v>0.04654314391264806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1351770184162888</v>
+        <v>0.1358681765831676</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02676407162294858</v>
+        <v>0.02504808914165296</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04817328513299616</v>
+        <v>0.04622345302477381</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0401537710505133</v>
+        <v>0.04032354384659029</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1253719415321272</v>
+        <v>0.124249720939594</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03223216965559433</v>
+        <v>0.0307579824528658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04703410375571922</v>
+        <v>0.04748612761396621</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0471917790129539</v>
+        <v>0.04886281778511977</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1385062955050304</v>
+        <v>0.1364596542945043</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06467742564162125</v>
+        <v>0.06684757144599192</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07420724061978694</v>
+        <v>0.07556807492840778</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09145614768322811</v>
+        <v>0.08581047026346385</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2043533303157424</v>
+        <v>0.2050530556081758</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06288474319475175</v>
+        <v>0.06059243545405715</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09155161893559972</v>
+        <v>0.0910869491666446</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07675198385797682</v>
+        <v>0.07772715148604302</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1729250859902451</v>
+        <v>0.1733899932673726</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05696828790209563</v>
+        <v>0.05628041701022445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07605448019773474</v>
+        <v>0.07628919903395574</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07599243874793828</v>
+        <v>0.07659265734727015</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.179403109458841</v>
+        <v>0.1784367975375138</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.1432950758594826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3228998172774785</v>
+        <v>0.3228998172774784</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1229174082292507</v>
@@ -1217,7 +1217,7 @@
         <v>0.1517311755175004</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2267370431502026</v>
+        <v>0.2267370431502025</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1188726613221717</v>
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08583635657086212</v>
+        <v>0.08630333858435804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1030571195085563</v>
+        <v>0.1025200874982114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1114866130525674</v>
+        <v>0.1133251121408096</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2828861303095083</v>
+        <v>0.2796732446027141</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0917444780407275</v>
+        <v>0.09299758994558698</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1249188061223925</v>
+        <v>0.1296495990559194</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1222827497609361</v>
+        <v>0.1214948954270675</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1958647162501115</v>
+        <v>0.1959783136873735</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09676045039077641</v>
+        <v>0.09614252444825602</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1244322837674805</v>
+        <v>0.1238000219565961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1236956831777842</v>
+        <v>0.1234461809462345</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2496243791727671</v>
+        <v>0.2466434879213496</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1497034243965991</v>
+        <v>0.1535262982045975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.17194011309234</v>
+        <v>0.173425220064426</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1798056855399845</v>
+        <v>0.178338102998857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3726795444983104</v>
+        <v>0.3664094290765346</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1582386084921028</v>
+        <v>0.1579544693982519</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1992536651640356</v>
+        <v>0.197369154870306</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1891989898137231</v>
+        <v>0.1890934225653718</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2613261817944919</v>
+        <v>0.2607273755032976</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.141240311676477</v>
+        <v>0.1437895819641544</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1735990785024968</v>
+        <v>0.1724513398983575</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1720572021078539</v>
+        <v>0.1698041326852913</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3047394334598317</v>
+        <v>0.299910891393728</v>
       </c>
     </row>
     <row r="19">
@@ -1341,7 +1341,7 @@
         <v>0.2996367499962406</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4582845939354955</v>
+        <v>0.4582845939354956</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2228914890166786</v>
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.154787717906008</v>
+        <v>0.1535915330719447</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2862245273317297</v>
+        <v>0.2857900876295777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2434841714090284</v>
+        <v>0.2488672133680203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3992990616884152</v>
+        <v>0.4022404218543325</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1857897106660726</v>
+        <v>0.1860156753975055</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2380928976361323</v>
+        <v>0.2356389855166266</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2275881930665089</v>
+        <v>0.2308868645349325</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3361840572370987</v>
+        <v>0.3404196833086779</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1791756147648644</v>
+        <v>0.1828842039811268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.273662489888466</v>
+        <v>0.2735598501484881</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2507556347800157</v>
+        <v>0.2536454474728784</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3805733732088276</v>
+        <v>0.3763668576512786</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2435281998906951</v>
+        <v>0.2397297337380777</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4044098044703086</v>
+        <v>0.4147277233838323</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3538125770710776</v>
+        <v>0.3572009203492124</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5227428949404117</v>
+        <v>0.510651528992532</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2707402542718234</v>
+        <v>0.2707233584896138</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3401773373153811</v>
+        <v>0.3365734366285191</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.32842574539241</v>
+        <v>0.3314238855036111</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4209338569972579</v>
+        <v>0.4247902100897339</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2408921981976804</v>
+        <v>0.242351320772186</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3494724531419253</v>
+        <v>0.3537550697303256</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3226773400090199</v>
+        <v>0.324917316886335</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4487300660856144</v>
+        <v>0.4496607355292928</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.3879868230495062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7130087962128303</v>
+        <v>0.7130087962128302</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2155121891043253</v>
@@ -1501,7 +1501,7 @@
         <v>0.3471124274611676</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6653672208242524</v>
+        <v>0.6653672208242523</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1527218764144164</v>
+        <v>0.1503215068944746</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2515926482197136</v>
+        <v>0.2553723494584031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3265810115269416</v>
+        <v>0.3321998007116291</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6403397964256911</v>
+        <v>0.6374707069950134</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1700779606660072</v>
+        <v>0.1719867148274212</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2881782048109192</v>
+        <v>0.2869674508209307</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2724231675203551</v>
+        <v>0.2676754882952226</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5835491453693086</v>
+        <v>0.5795310807181487</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1753996589792851</v>
+        <v>0.1770089239112752</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.289664517627534</v>
+        <v>0.2888131152271896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3076746514143121</v>
+        <v>0.304833283333408</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6193304937331117</v>
+        <v>0.6254876165601914</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2557558901036676</v>
+        <v>0.2582868547175865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3811171678288361</v>
+        <v>0.3757067460054668</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4468590335188474</v>
+        <v>0.4493609787437234</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.789448352086966</v>
+        <v>0.7926095611045231</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2674863739564108</v>
+        <v>0.2709749339858352</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3865518883792117</v>
+        <v>0.3919889941503598</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3753628252050326</v>
+        <v>0.3743711449787361</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6865853381661144</v>
+        <v>0.6851193789834474</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2465526879488083</v>
+        <v>0.2504642078843438</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3678968521685971</v>
+        <v>0.3639686064465874</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3913953009090154</v>
+        <v>0.3866652814971627</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7103200579395132</v>
+        <v>0.7086025801681702</v>
       </c>
     </row>
     <row r="25">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07660757706608323</v>
+        <v>0.07679564364788954</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08654030466274976</v>
+        <v>0.0857434680808874</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2205677762729599</v>
+        <v>0.2227739271765649</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09619067461747376</v>
+        <v>0.0965725770797459</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09249591746338053</v>
+        <v>0.09338883792017091</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2028131998001422</v>
+        <v>0.2025390825080697</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08860417124352402</v>
+        <v>0.08889674709437215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.09271961205209815</v>
+        <v>0.09262115326143899</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2156385981678157</v>
+        <v>0.2153935790137562</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09771095664670978</v>
+        <v>0.09746103483366696</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1060914027953148</v>
+        <v>0.1062353596302747</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2559635143130682</v>
+        <v>0.2592991360402918</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1175757551067996</v>
+        <v>0.1174180754453334</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1149168225085058</v>
+        <v>0.1161703062368887</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2304312176231643</v>
+        <v>0.228378720489897</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1045377762291543</v>
+        <v>0.1043714504703653</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.107863571010583</v>
+        <v>0.1081512767018242</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2370563236516227</v>
+        <v>0.2373963716863298</v>
       </c>
     </row>
     <row r="28">
